--- a/Taxonomies/Monty_DataSources.xlsx
+++ b/Taxonomies/Monty_DataSources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="118">
   <si>
     <t xml:space="preserve">src_db_code</t>
   </si>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Apache-2-like</t>
+    <t xml:space="preserve">CC BY</t>
   </si>
   <si>
     <t xml:space="preserve">UNO_damass</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">https://unosat.org/products/</t>
   </si>
   <si>
-    <t xml:space="preserve">CCA</t>
+    <t xml:space="preserve">CC BY-SA</t>
   </si>
   <si>
     <t xml:space="preserve">COP_damass</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">https://emergency.copernicus.eu/</t>
   </si>
   <si>
-    <t xml:space="preserve">GO-App</t>
+    <t xml:space="preserve">GO-EA</t>
   </si>
   <si>
     <t xml:space="preserve">IFRC Emergency Appeals (EA)</t>
@@ -256,48 +256,54 @@
     <t xml:space="preserve">www.internal-displacement.org</t>
   </si>
   <si>
+    <t xml:space="preserve">CC BY-IGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDACS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Disaster Alert and Coordination System (GDACS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC-JRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Commission - Joint Research Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coordination@gdacs.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.gdacs.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT License</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLobal IDEntifier numbers (GLIDE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian Disaster Reduction Center (ADRC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gliderep@adrc.asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://glidenumber.net</t>
+  </si>
+  <si>
     <t xml:space="preserve">unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">GDACS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Disaster Alert and Coordination System (GDACS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC-JRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Commission - Joint Research Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coordination@gdacs.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.gdacs.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mediator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLobal IDEntifier numbers (GLIDE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian Disaster Reduction Center (ADRC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gliderep@adrc.asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://glidenumber.net</t>
-  </si>
-  <si>
     <t xml:space="preserve">GO-Maps</t>
   </si>
   <si>
@@ -307,10 +313,10 @@
     <t xml:space="preserve">https://go-user-library.ifrc.org/maps</t>
   </si>
   <si>
-    <t xml:space="preserve">Shakemaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earthquake Catalog</t>
+    <t xml:space="preserve">Atlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlas Earthquake ShakeMap Catalog</t>
   </si>
   <si>
     <t xml:space="preserve">USGS</t>
@@ -325,7 +331,49 @@
     <t xml:space="preserve">https://www.usgs.gov/survey-manual/11006-use-copyrighted-material-usgs-information-products</t>
   </si>
   <si>
-    <t xml:space="preserve">U.S Public Domain</t>
+    <t xml:space="preserve">GAUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Administrative Unit Layers (GAUL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food and Agriculture Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fao-data@fao.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://data.apps.fao.org/map/catalog/static/search?keyword=HiH_boundaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GovDes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Official Government or UN ADM Boundaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dartmouth Flood Observatory (DFO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniColumbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kettner@colorado.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://floodobservatory.colorado.edu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCA 4.0 BY</t>
   </si>
 </sst>
 </file>
@@ -335,11 +383,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -361,12 +410,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -411,7 +469,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -426,6 +484,14 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -445,10 +511,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ18"/>
+  <dimension ref="A1:AMJ21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8:K8"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -522,6 +588,8 @@
       <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
@@ -556,6 +624,8 @@
       <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
@@ -619,7 +689,7 @@
       <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="0" t="s">
         <v>39</v>
       </c>
     </row>
@@ -783,6 +853,8 @@
       <c r="J10" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -941,21 +1013,21 @@
         <v>85</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -964,24 +1036,24 @@
         <v>45</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>50</v>
@@ -999,7 +1071,7 @@
         <v>54</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>29</v>
@@ -1010,16 +1082,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>25</v>
@@ -1028,16 +1100,112 @@
         <v>26</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>29</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>101</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Taxonomies/Monty_DataSources.xlsx
+++ b/Taxonomies/Monty_DataSources.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="120">
   <si>
     <t xml:space="preserve">src_db_code</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t xml:space="preserve">CC BY-IGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Displacement Updates (IDU)</t>
   </si>
   <si>
     <t xml:space="preserve">GDACS</t>
@@ -511,10 +517,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ21"/>
+  <dimension ref="A1:AMJ22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -992,42 +998,42 @@
         <v>80</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -1036,94 +1042,94 @@
         <v>45</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="I17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="I18" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>30</v>
+      <c r="J18" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>25</v>
@@ -1132,30 +1138,30 @@
         <v>26</v>
       </c>
       <c r="G19" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="D20" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>25</v>
@@ -1163,49 +1169,81 @@
       <c r="F20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="0" t="s">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="B22" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="C22" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>117</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Taxonomies/Monty_DataSources.xlsx
+++ b/Taxonomies/Monty_DataSources.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="126">
   <si>
     <t xml:space="preserve">src_db_code</t>
   </si>
@@ -380,6 +380,24 @@
   </si>
   <si>
     <t xml:space="preserve">CCA 4.0 BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Disaster Analysis and Mapping (ADAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Food Programme (WFP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wfp.adam@wfp.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gis.wfp.org/adam/</t>
   </si>
 </sst>
 </file>
@@ -475,24 +493,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,748 +528,886 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ22"/>
+  <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="AMI2" s="1"/>
+      <c r="AMJ2" s="1"/>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="AMI3" s="1"/>
+      <c r="AMJ3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="0" t="s">
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="0" t="s">
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="0"/>
-      <c r="M10" s="0"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="I13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="0" t="s">
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="0" t="s">
+      <c r="I18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="I19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="I21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="I22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1417,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
